--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_158.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_158.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32341-d77972-Reviews-Courtyard_Los_Angeles_LAX_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>614</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Los-Angeles-LAX-El-Segundo.h2551.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_158.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_158.xlsx
@@ -7669,7 +7669,7 @@
         <v>25538</v>
       </c>
       <c r="B2" t="n">
-        <v>132854</v>
+        <v>163660</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -7730,7 +7730,7 @@
         <v>25538</v>
       </c>
       <c r="B3" t="n">
-        <v>132855</v>
+        <v>163661</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -7852,7 +7852,7 @@
         <v>25538</v>
       </c>
       <c r="B5" t="n">
-        <v>132856</v>
+        <v>163662</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -7917,7 +7917,7 @@
         <v>25538</v>
       </c>
       <c r="B6" t="n">
-        <v>132857</v>
+        <v>163663</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -7982,7 +7982,7 @@
         <v>25538</v>
       </c>
       <c r="B7" t="n">
-        <v>132858</v>
+        <v>163664</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -8043,7 +8043,7 @@
         <v>25538</v>
       </c>
       <c r="B8" t="n">
-        <v>132859</v>
+        <v>163665</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -8104,7 +8104,7 @@
         <v>25538</v>
       </c>
       <c r="B9" t="n">
-        <v>132860</v>
+        <v>163666</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -8169,7 +8169,7 @@
         <v>25538</v>
       </c>
       <c r="B10" t="n">
-        <v>132861</v>
+        <v>163667</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
@@ -8307,7 +8307,7 @@
         <v>25538</v>
       </c>
       <c r="B12" t="n">
-        <v>132862</v>
+        <v>163668</v>
       </c>
       <c r="C12" t="s">
         <v>131</v>
@@ -8376,7 +8376,7 @@
         <v>25538</v>
       </c>
       <c r="B13" t="n">
-        <v>132863</v>
+        <v>163669</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
@@ -8437,7 +8437,7 @@
         <v>25538</v>
       </c>
       <c r="B14" t="n">
-        <v>132864</v>
+        <v>163670</v>
       </c>
       <c r="C14" t="s">
         <v>148</v>
@@ -8508,7 +8508,7 @@
         <v>25538</v>
       </c>
       <c r="B15" t="n">
-        <v>132865</v>
+        <v>163671</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
@@ -8569,7 +8569,7 @@
         <v>25538</v>
       </c>
       <c r="B16" t="n">
-        <v>132866</v>
+        <v>163672</v>
       </c>
       <c r="C16" t="s">
         <v>166</v>
@@ -8630,7 +8630,7 @@
         <v>25538</v>
       </c>
       <c r="B17" t="n">
-        <v>132867</v>
+        <v>163673</v>
       </c>
       <c r="C17" t="s">
         <v>173</v>
@@ -8687,7 +8687,7 @@
         <v>25538</v>
       </c>
       <c r="B18" t="n">
-        <v>132868</v>
+        <v>163674</v>
       </c>
       <c r="C18" t="s">
         <v>179</v>
@@ -8815,7 +8815,7 @@
         <v>25538</v>
       </c>
       <c r="B20" t="n">
-        <v>132869</v>
+        <v>163675</v>
       </c>
       <c r="C20" t="s">
         <v>192</v>
@@ -9014,7 +9014,7 @@
         <v>25538</v>
       </c>
       <c r="B23" t="n">
-        <v>132870</v>
+        <v>163676</v>
       </c>
       <c r="C23" t="s">
         <v>214</v>
@@ -9075,7 +9075,7 @@
         <v>25538</v>
       </c>
       <c r="B24" t="n">
-        <v>132871</v>
+        <v>163677</v>
       </c>
       <c r="C24" t="s">
         <v>221</v>
@@ -9197,7 +9197,7 @@
         <v>25538</v>
       </c>
       <c r="B26" t="n">
-        <v>132872</v>
+        <v>163678</v>
       </c>
       <c r="C26" t="s">
         <v>235</v>
@@ -9258,7 +9258,7 @@
         <v>25538</v>
       </c>
       <c r="B27" t="n">
-        <v>132873</v>
+        <v>163679</v>
       </c>
       <c r="C27" t="s">
         <v>241</v>
@@ -9323,7 +9323,7 @@
         <v>25538</v>
       </c>
       <c r="B28" t="n">
-        <v>132874</v>
+        <v>163680</v>
       </c>
       <c r="C28" t="s">
         <v>247</v>
@@ -9384,7 +9384,7 @@
         <v>25538</v>
       </c>
       <c r="B29" t="n">
-        <v>132875</v>
+        <v>163681</v>
       </c>
       <c r="C29" t="s">
         <v>253</v>
@@ -9449,7 +9449,7 @@
         <v>25538</v>
       </c>
       <c r="B30" t="n">
-        <v>132876</v>
+        <v>163682</v>
       </c>
       <c r="C30" t="s">
         <v>260</v>
@@ -9514,7 +9514,7 @@
         <v>25538</v>
       </c>
       <c r="B31" t="n">
-        <v>132877</v>
+        <v>163683</v>
       </c>
       <c r="C31" t="s">
         <v>267</v>
@@ -9575,7 +9575,7 @@
         <v>25538</v>
       </c>
       <c r="B32" t="n">
-        <v>132878</v>
+        <v>163684</v>
       </c>
       <c r="C32" t="s">
         <v>275</v>
@@ -9632,7 +9632,7 @@
         <v>25538</v>
       </c>
       <c r="B33" t="n">
-        <v>132879</v>
+        <v>163685</v>
       </c>
       <c r="C33" t="s">
         <v>282</v>
@@ -9703,7 +9703,7 @@
         <v>25538</v>
       </c>
       <c r="B34" t="n">
-        <v>132880</v>
+        <v>163686</v>
       </c>
       <c r="C34" t="s">
         <v>291</v>
@@ -9774,7 +9774,7 @@
         <v>25538</v>
       </c>
       <c r="B35" t="n">
-        <v>132881</v>
+        <v>133186</v>
       </c>
       <c r="C35" t="s">
         <v>298</v>
@@ -9843,7 +9843,7 @@
         <v>25538</v>
       </c>
       <c r="B36" t="n">
-        <v>132882</v>
+        <v>163687</v>
       </c>
       <c r="C36" t="s">
         <v>307</v>
@@ -9908,7 +9908,7 @@
         <v>25538</v>
       </c>
       <c r="B37" t="n">
-        <v>132883</v>
+        <v>163688</v>
       </c>
       <c r="C37" t="s">
         <v>314</v>
@@ -9977,7 +9977,7 @@
         <v>25538</v>
       </c>
       <c r="B38" t="n">
-        <v>132884</v>
+        <v>163689</v>
       </c>
       <c r="C38" t="s">
         <v>323</v>
@@ -10038,7 +10038,7 @@
         <v>25538</v>
       </c>
       <c r="B39" t="n">
-        <v>132885</v>
+        <v>163690</v>
       </c>
       <c r="C39" t="s">
         <v>329</v>
@@ -10105,7 +10105,7 @@
         <v>25538</v>
       </c>
       <c r="B40" t="n">
-        <v>132886</v>
+        <v>163691</v>
       </c>
       <c r="C40" t="s">
         <v>335</v>
@@ -10172,7 +10172,7 @@
         <v>25538</v>
       </c>
       <c r="B41" t="n">
-        <v>132887</v>
+        <v>163692</v>
       </c>
       <c r="C41" t="s">
         <v>342</v>
@@ -10300,7 +10300,7 @@
         <v>25538</v>
       </c>
       <c r="B43" t="n">
-        <v>132888</v>
+        <v>163693</v>
       </c>
       <c r="C43" t="s">
         <v>356</v>
@@ -10367,7 +10367,7 @@
         <v>25538</v>
       </c>
       <c r="B44" t="n">
-        <v>132889</v>
+        <v>163694</v>
       </c>
       <c r="C44" t="s">
         <v>363</v>
@@ -10505,7 +10505,7 @@
         <v>25538</v>
       </c>
       <c r="B46" t="n">
-        <v>132890</v>
+        <v>163695</v>
       </c>
       <c r="C46" t="s">
         <v>380</v>
@@ -10641,7 +10641,7 @@
         <v>25538</v>
       </c>
       <c r="B48" t="n">
-        <v>132891</v>
+        <v>163696</v>
       </c>
       <c r="C48" t="s">
         <v>395</v>
@@ -10771,7 +10771,7 @@
         <v>25538</v>
       </c>
       <c r="B50" t="n">
-        <v>132892</v>
+        <v>163697</v>
       </c>
       <c r="C50" t="s">
         <v>410</v>
@@ -10842,7 +10842,7 @@
         <v>25538</v>
       </c>
       <c r="B51" t="n">
-        <v>132893</v>
+        <v>163698</v>
       </c>
       <c r="C51" t="s">
         <v>420</v>
@@ -10911,7 +10911,7 @@
         <v>25538</v>
       </c>
       <c r="B52" t="n">
-        <v>132894</v>
+        <v>163699</v>
       </c>
       <c r="C52" t="s">
         <v>429</v>
@@ -11041,7 +11041,7 @@
         <v>25538</v>
       </c>
       <c r="B54" t="n">
-        <v>132895</v>
+        <v>163700</v>
       </c>
       <c r="C54" t="s">
         <v>446</v>
@@ -11177,7 +11177,7 @@
         <v>25538</v>
       </c>
       <c r="B56" t="n">
-        <v>132896</v>
+        <v>163701</v>
       </c>
       <c r="C56" t="s">
         <v>465</v>
@@ -11437,7 +11437,7 @@
         <v>25538</v>
       </c>
       <c r="B60" t="n">
-        <v>132897</v>
+        <v>163702</v>
       </c>
       <c r="C60" t="s">
         <v>492</v>
@@ -11504,7 +11504,7 @@
         <v>25538</v>
       </c>
       <c r="B61" t="n">
-        <v>132898</v>
+        <v>163703</v>
       </c>
       <c r="C61" t="s">
         <v>501</v>
@@ -11638,7 +11638,7 @@
         <v>25538</v>
       </c>
       <c r="B63" t="n">
-        <v>132899</v>
+        <v>163704</v>
       </c>
       <c r="C63" t="s">
         <v>513</v>
@@ -11703,7 +11703,7 @@
         <v>25538</v>
       </c>
       <c r="B64" t="n">
-        <v>132900</v>
+        <v>163705</v>
       </c>
       <c r="C64" t="s">
         <v>519</v>
@@ -11768,7 +11768,7 @@
         <v>25538</v>
       </c>
       <c r="B65" t="n">
-        <v>132901</v>
+        <v>163706</v>
       </c>
       <c r="C65" t="s">
         <v>526</v>
@@ -11898,7 +11898,7 @@
         <v>25538</v>
       </c>
       <c r="B67" t="n">
-        <v>132902</v>
+        <v>163707</v>
       </c>
       <c r="C67" t="s">
         <v>543</v>
@@ -12168,7 +12168,7 @@
         <v>25538</v>
       </c>
       <c r="B71" t="n">
-        <v>132903</v>
+        <v>163708</v>
       </c>
       <c r="C71" t="s">
         <v>572</v>
@@ -12290,7 +12290,7 @@
         <v>25538</v>
       </c>
       <c r="B73" t="n">
-        <v>132904</v>
+        <v>146920</v>
       </c>
       <c r="C73" t="s">
         <v>586</v>
@@ -12357,7 +12357,7 @@
         <v>25538</v>
       </c>
       <c r="B74" t="n">
-        <v>132905</v>
+        <v>163709</v>
       </c>
       <c r="C74" t="s">
         <v>593</v>
@@ -12418,7 +12418,7 @@
         <v>25538</v>
       </c>
       <c r="B75" t="n">
-        <v>132906</v>
+        <v>163710</v>
       </c>
       <c r="C75" t="s">
         <v>599</v>
@@ -12485,7 +12485,7 @@
         <v>25538</v>
       </c>
       <c r="B76" t="n">
-        <v>132907</v>
+        <v>163711</v>
       </c>
       <c r="C76" t="s">
         <v>605</v>
@@ -12546,7 +12546,7 @@
         <v>25538</v>
       </c>
       <c r="B77" t="n">
-        <v>132908</v>
+        <v>163712</v>
       </c>
       <c r="C77" t="s">
         <v>611</v>
@@ -12615,7 +12615,7 @@
         <v>25538</v>
       </c>
       <c r="B78" t="n">
-        <v>132909</v>
+        <v>163713</v>
       </c>
       <c r="C78" t="s">
         <v>621</v>
@@ -12682,7 +12682,7 @@
         <v>25538</v>
       </c>
       <c r="B79" t="n">
-        <v>132910</v>
+        <v>163714</v>
       </c>
       <c r="C79" t="s">
         <v>628</v>
@@ -12747,7 +12747,7 @@
         <v>25538</v>
       </c>
       <c r="B80" t="n">
-        <v>132911</v>
+        <v>163715</v>
       </c>
       <c r="C80" t="s">
         <v>634</v>
@@ -12812,7 +12812,7 @@
         <v>25538</v>
       </c>
       <c r="B81" t="n">
-        <v>132912</v>
+        <v>163716</v>
       </c>
       <c r="C81" t="s">
         <v>640</v>
@@ -12938,7 +12938,7 @@
         <v>25538</v>
       </c>
       <c r="B83" t="n">
-        <v>132913</v>
+        <v>163717</v>
       </c>
       <c r="C83" t="s">
         <v>654</v>
@@ -13070,7 +13070,7 @@
         <v>25538</v>
       </c>
       <c r="B85" t="n">
-        <v>132914</v>
+        <v>163718</v>
       </c>
       <c r="C85" t="s">
         <v>667</v>
@@ -13131,7 +13131,7 @@
         <v>25538</v>
       </c>
       <c r="B86" t="n">
-        <v>132915</v>
+        <v>163719</v>
       </c>
       <c r="C86" t="s">
         <v>674</v>
@@ -13192,7 +13192,7 @@
         <v>25538</v>
       </c>
       <c r="B87" t="n">
-        <v>132916</v>
+        <v>163720</v>
       </c>
       <c r="C87" t="s">
         <v>680</v>
@@ -13328,7 +13328,7 @@
         <v>25538</v>
       </c>
       <c r="B89" t="n">
-        <v>132917</v>
+        <v>163721</v>
       </c>
       <c r="C89" t="s">
         <v>696</v>
@@ -13395,7 +13395,7 @@
         <v>25538</v>
       </c>
       <c r="B90" t="n">
-        <v>132918</v>
+        <v>163722</v>
       </c>
       <c r="C90" t="s">
         <v>702</v>
@@ -13456,7 +13456,7 @@
         <v>25538</v>
       </c>
       <c r="B91" t="n">
-        <v>132919</v>
+        <v>163723</v>
       </c>
       <c r="C91" t="s">
         <v>709</v>
@@ -13527,7 +13527,7 @@
         <v>25538</v>
       </c>
       <c r="B92" t="n">
-        <v>132920</v>
+        <v>163724</v>
       </c>
       <c r="C92" t="s">
         <v>718</v>
@@ -13588,7 +13588,7 @@
         <v>25538</v>
       </c>
       <c r="B93" t="n">
-        <v>132921</v>
+        <v>163725</v>
       </c>
       <c r="C93" t="s">
         <v>724</v>
@@ -13657,7 +13657,7 @@
         <v>25538</v>
       </c>
       <c r="B94" t="n">
-        <v>132922</v>
+        <v>163726</v>
       </c>
       <c r="C94" t="s">
         <v>734</v>
@@ -13791,7 +13791,7 @@
         <v>25538</v>
       </c>
       <c r="B96" t="n">
-        <v>132923</v>
+        <v>163727</v>
       </c>
       <c r="C96" t="s">
         <v>753</v>
@@ -14051,7 +14051,7 @@
         <v>25538</v>
       </c>
       <c r="B100" t="n">
-        <v>132924</v>
+        <v>163728</v>
       </c>
       <c r="C100" t="s">
         <v>778</v>
@@ -14187,7 +14187,7 @@
         <v>25538</v>
       </c>
       <c r="B102" t="n">
-        <v>132925</v>
+        <v>163729</v>
       </c>
       <c r="C102" t="s">
         <v>793</v>
@@ -14258,7 +14258,7 @@
         <v>25538</v>
       </c>
       <c r="B103" t="n">
-        <v>132926</v>
+        <v>163730</v>
       </c>
       <c r="C103" t="s">
         <v>803</v>
@@ -14315,7 +14315,7 @@
         <v>25538</v>
       </c>
       <c r="B104" t="n">
-        <v>132927</v>
+        <v>163731</v>
       </c>
       <c r="C104" t="s">
         <v>809</v>
@@ -14508,7 +14508,7 @@
         <v>25538</v>
       </c>
       <c r="B107" t="n">
-        <v>132928</v>
+        <v>163732</v>
       </c>
       <c r="C107" t="s">
         <v>830</v>
@@ -14575,7 +14575,7 @@
         <v>25538</v>
       </c>
       <c r="B108" t="n">
-        <v>132929</v>
+        <v>163733</v>
       </c>
       <c r="C108" t="s">
         <v>837</v>
@@ -14642,7 +14642,7 @@
         <v>25538</v>
       </c>
       <c r="B109" t="n">
-        <v>132930</v>
+        <v>163734</v>
       </c>
       <c r="C109" t="s">
         <v>844</v>
@@ -14703,7 +14703,7 @@
         <v>25538</v>
       </c>
       <c r="B110" t="n">
-        <v>132931</v>
+        <v>163735</v>
       </c>
       <c r="C110" t="s">
         <v>852</v>
@@ -14770,7 +14770,7 @@
         <v>25538</v>
       </c>
       <c r="B111" t="n">
-        <v>132932</v>
+        <v>163736</v>
       </c>
       <c r="C111" t="s">
         <v>859</v>
@@ -14965,7 +14965,7 @@
         <v>25538</v>
       </c>
       <c r="B114" t="n">
-        <v>132933</v>
+        <v>163737</v>
       </c>
       <c r="C114" t="s">
         <v>878</v>
@@ -15030,7 +15030,7 @@
         <v>25538</v>
       </c>
       <c r="B115" t="n">
-        <v>132934</v>
+        <v>163738</v>
       </c>
       <c r="C115" t="s">
         <v>885</v>
@@ -15095,7 +15095,7 @@
         <v>25538</v>
       </c>
       <c r="B116" t="n">
-        <v>132935</v>
+        <v>163739</v>
       </c>
       <c r="C116" t="s">
         <v>891</v>
@@ -15162,7 +15162,7 @@
         <v>25538</v>
       </c>
       <c r="B117" t="n">
-        <v>132936</v>
+        <v>163740</v>
       </c>
       <c r="C117" t="s">
         <v>897</v>
@@ -15229,7 +15229,7 @@
         <v>25538</v>
       </c>
       <c r="B118" t="n">
-        <v>132937</v>
+        <v>163741</v>
       </c>
       <c r="C118" t="s">
         <v>902</v>
@@ -15296,7 +15296,7 @@
         <v>25538</v>
       </c>
       <c r="B119" t="n">
-        <v>132938</v>
+        <v>163742</v>
       </c>
       <c r="C119" t="s">
         <v>908</v>
@@ -15363,7 +15363,7 @@
         <v>25538</v>
       </c>
       <c r="B120" t="n">
-        <v>132939</v>
+        <v>163743</v>
       </c>
       <c r="C120" t="s">
         <v>914</v>
@@ -15430,7 +15430,7 @@
         <v>25538</v>
       </c>
       <c r="B121" t="n">
-        <v>132940</v>
+        <v>163744</v>
       </c>
       <c r="C121" t="s">
         <v>920</v>
@@ -15497,7 +15497,7 @@
         <v>25538</v>
       </c>
       <c r="B122" t="n">
-        <v>132941</v>
+        <v>163745</v>
       </c>
       <c r="C122" t="s">
         <v>926</v>
@@ -15625,7 +15625,7 @@
         <v>25538</v>
       </c>
       <c r="B124" t="n">
-        <v>132942</v>
+        <v>163746</v>
       </c>
       <c r="C124" t="s">
         <v>938</v>
@@ -15686,7 +15686,7 @@
         <v>25538</v>
       </c>
       <c r="B125" t="n">
-        <v>132943</v>
+        <v>163747</v>
       </c>
       <c r="C125" t="s">
         <v>945</v>
@@ -15755,7 +15755,7 @@
         <v>25538</v>
       </c>
       <c r="B126" t="n">
-        <v>132944</v>
+        <v>163748</v>
       </c>
       <c r="C126" t="s">
         <v>955</v>
@@ -15820,7 +15820,7 @@
         <v>25538</v>
       </c>
       <c r="B127" t="n">
-        <v>132945</v>
+        <v>163749</v>
       </c>
       <c r="C127" t="s">
         <v>961</v>
@@ -15887,7 +15887,7 @@
         <v>25538</v>
       </c>
       <c r="B128" t="n">
-        <v>132946</v>
+        <v>163750</v>
       </c>
       <c r="C128" t="s">
         <v>966</v>
@@ -15954,7 +15954,7 @@
         <v>25538</v>
       </c>
       <c r="B129" t="n">
-        <v>132947</v>
+        <v>163751</v>
       </c>
       <c r="C129" t="s">
         <v>973</v>
@@ -16015,7 +16015,7 @@
         <v>25538</v>
       </c>
       <c r="B130" t="n">
-        <v>132948</v>
+        <v>163752</v>
       </c>
       <c r="C130" t="s">
         <v>979</v>
@@ -16080,7 +16080,7 @@
         <v>25538</v>
       </c>
       <c r="B131" t="n">
-        <v>132949</v>
+        <v>163753</v>
       </c>
       <c r="C131" t="s">
         <v>985</v>
@@ -16143,7 +16143,7 @@
         <v>25538</v>
       </c>
       <c r="B132" t="n">
-        <v>132950</v>
+        <v>163754</v>
       </c>
       <c r="C132" t="s">
         <v>992</v>
@@ -16204,7 +16204,7 @@
         <v>25538</v>
       </c>
       <c r="B133" t="n">
-        <v>132951</v>
+        <v>163755</v>
       </c>
       <c r="C133" t="s">
         <v>998</v>
@@ -16336,7 +16336,7 @@
         <v>25538</v>
       </c>
       <c r="B135" t="n">
-        <v>132952</v>
+        <v>163756</v>
       </c>
       <c r="C135" t="s">
         <v>1010</v>
@@ -16401,7 +16401,7 @@
         <v>25538</v>
       </c>
       <c r="B136" t="n">
-        <v>132953</v>
+        <v>163757</v>
       </c>
       <c r="C136" t="s">
         <v>1016</v>
@@ -16468,7 +16468,7 @@
         <v>25538</v>
       </c>
       <c r="B137" t="n">
-        <v>132954</v>
+        <v>163758</v>
       </c>
       <c r="C137" t="s">
         <v>1021</v>
@@ -16537,7 +16537,7 @@
         <v>25538</v>
       </c>
       <c r="B138" t="n">
-        <v>132955</v>
+        <v>163759</v>
       </c>
       <c r="C138" t="s">
         <v>1031</v>
@@ -16608,7 +16608,7 @@
         <v>25538</v>
       </c>
       <c r="B139" t="n">
-        <v>132956</v>
+        <v>163760</v>
       </c>
       <c r="C139" t="s">
         <v>1039</v>
@@ -16669,7 +16669,7 @@
         <v>25538</v>
       </c>
       <c r="B140" t="n">
-        <v>132957</v>
+        <v>163761</v>
       </c>
       <c r="C140" t="s">
         <v>1045</v>
@@ -16882,7 +16882,7 @@
         <v>25538</v>
       </c>
       <c r="B143" t="n">
-        <v>132958</v>
+        <v>163762</v>
       </c>
       <c r="C143" t="s">
         <v>1063</v>
@@ -17030,7 +17030,7 @@
         <v>25538</v>
       </c>
       <c r="B145" t="n">
-        <v>132959</v>
+        <v>163763</v>
       </c>
       <c r="C145" t="s">
         <v>1082</v>
@@ -17105,7 +17105,7 @@
         <v>25538</v>
       </c>
       <c r="B146" t="n">
-        <v>132960</v>
+        <v>132901</v>
       </c>
       <c r="C146" t="s">
         <v>1091</v>
@@ -17180,7 +17180,7 @@
         <v>25538</v>
       </c>
       <c r="B147" t="n">
-        <v>132961</v>
+        <v>163764</v>
       </c>
       <c r="C147" t="s">
         <v>1098</v>
@@ -17255,7 +17255,7 @@
         <v>25538</v>
       </c>
       <c r="B148" t="n">
-        <v>132962</v>
+        <v>163765</v>
       </c>
       <c r="C148" t="s">
         <v>1105</v>
@@ -17326,7 +17326,7 @@
         <v>25538</v>
       </c>
       <c r="B149" t="n">
-        <v>132963</v>
+        <v>163766</v>
       </c>
       <c r="C149" t="s">
         <v>1111</v>
@@ -17397,7 +17397,7 @@
         <v>25538</v>
       </c>
       <c r="B150" t="n">
-        <v>132964</v>
+        <v>163767</v>
       </c>
       <c r="C150" t="s">
         <v>1117</v>
@@ -17547,7 +17547,7 @@
         <v>25538</v>
       </c>
       <c r="B152" t="n">
-        <v>132965</v>
+        <v>163768</v>
       </c>
       <c r="C152" t="s">
         <v>1133</v>
@@ -17618,7 +17618,7 @@
         <v>25538</v>
       </c>
       <c r="B153" t="n">
-        <v>132966</v>
+        <v>163769</v>
       </c>
       <c r="C153" t="s">
         <v>1140</v>
@@ -17689,7 +17689,7 @@
         <v>25538</v>
       </c>
       <c r="B154" t="n">
-        <v>132967</v>
+        <v>163770</v>
       </c>
       <c r="C154" t="s">
         <v>1146</v>
@@ -17764,7 +17764,7 @@
         <v>25538</v>
       </c>
       <c r="B155" t="n">
-        <v>132968</v>
+        <v>163771</v>
       </c>
       <c r="C155" t="s">
         <v>1153</v>
@@ -17835,7 +17835,7 @@
         <v>25538</v>
       </c>
       <c r="B156" t="n">
-        <v>132969</v>
+        <v>163772</v>
       </c>
       <c r="C156" t="s">
         <v>1160</v>
@@ -17977,7 +17977,7 @@
         <v>25538</v>
       </c>
       <c r="B158" t="n">
-        <v>132970</v>
+        <v>163773</v>
       </c>
       <c r="C158" t="s">
         <v>1172</v>
@@ -18044,7 +18044,7 @@
         <v>25538</v>
       </c>
       <c r="B159" t="n">
-        <v>132971</v>
+        <v>163774</v>
       </c>
       <c r="C159" t="s">
         <v>1178</v>
@@ -18115,7 +18115,7 @@
         <v>25538</v>
       </c>
       <c r="B160" t="n">
-        <v>132972</v>
+        <v>163775</v>
       </c>
       <c r="C160" t="s">
         <v>1184</v>
@@ -18257,7 +18257,7 @@
         <v>25538</v>
       </c>
       <c r="B162" t="n">
-        <v>132973</v>
+        <v>163776</v>
       </c>
       <c r="C162" t="s">
         <v>1197</v>
@@ -18328,7 +18328,7 @@
         <v>25538</v>
       </c>
       <c r="B163" t="n">
-        <v>132974</v>
+        <v>163777</v>
       </c>
       <c r="C163" t="s">
         <v>1203</v>
@@ -18399,7 +18399,7 @@
         <v>25538</v>
       </c>
       <c r="B164" t="n">
-        <v>132975</v>
+        <v>163778</v>
       </c>
       <c r="C164" t="s">
         <v>1211</v>
@@ -18470,7 +18470,7 @@
         <v>25538</v>
       </c>
       <c r="B165" t="n">
-        <v>132976</v>
+        <v>163779</v>
       </c>
       <c r="C165" t="s">
         <v>1217</v>
@@ -18541,7 +18541,7 @@
         <v>25538</v>
       </c>
       <c r="B166" t="n">
-        <v>132977</v>
+        <v>163780</v>
       </c>
       <c r="C166" t="s">
         <v>1222</v>
@@ -18616,7 +18616,7 @@
         <v>25538</v>
       </c>
       <c r="B167" t="n">
-        <v>132978</v>
+        <v>163781</v>
       </c>
       <c r="C167" t="s">
         <v>1231</v>
@@ -18900,7 +18900,7 @@
         <v>25538</v>
       </c>
       <c r="B171" t="n">
-        <v>132979</v>
+        <v>163782</v>
       </c>
       <c r="C171" t="s">
         <v>1259</v>
@@ -18961,7 +18961,7 @@
         <v>25538</v>
       </c>
       <c r="B172" t="n">
-        <v>132980</v>
+        <v>163783</v>
       </c>
       <c r="C172" t="s">
         <v>1264</v>
@@ -19032,7 +19032,7 @@
         <v>25538</v>
       </c>
       <c r="B173" t="n">
-        <v>132981</v>
+        <v>163784</v>
       </c>
       <c r="C173" t="s">
         <v>1272</v>
@@ -19103,7 +19103,7 @@
         <v>25538</v>
       </c>
       <c r="B174" t="n">
-        <v>132982</v>
+        <v>163785</v>
       </c>
       <c r="C174" t="s">
         <v>1279</v>
@@ -19174,7 +19174,7 @@
         <v>25538</v>
       </c>
       <c r="B175" t="n">
-        <v>132983</v>
+        <v>163786</v>
       </c>
       <c r="C175" t="s">
         <v>1285</v>
@@ -19245,7 +19245,7 @@
         <v>25538</v>
       </c>
       <c r="B176" t="n">
-        <v>132984</v>
+        <v>163787</v>
       </c>
       <c r="C176" t="s">
         <v>1291</v>
@@ -19316,7 +19316,7 @@
         <v>25538</v>
       </c>
       <c r="B177" t="n">
-        <v>132985</v>
+        <v>163788</v>
       </c>
       <c r="C177" t="s">
         <v>1297</v>
@@ -19387,7 +19387,7 @@
         <v>25538</v>
       </c>
       <c r="B178" t="n">
-        <v>132986</v>
+        <v>163789</v>
       </c>
       <c r="C178" t="s">
         <v>1303</v>
@@ -19454,7 +19454,7 @@
         <v>25538</v>
       </c>
       <c r="B179" t="n">
-        <v>132987</v>
+        <v>163790</v>
       </c>
       <c r="C179" t="s">
         <v>1310</v>
@@ -19525,7 +19525,7 @@
         <v>25538</v>
       </c>
       <c r="B180" t="n">
-        <v>132988</v>
+        <v>163791</v>
       </c>
       <c r="C180" t="s">
         <v>1317</v>
@@ -19592,7 +19592,7 @@
         <v>25538</v>
       </c>
       <c r="B181" t="n">
-        <v>132989</v>
+        <v>163792</v>
       </c>
       <c r="C181" t="s">
         <v>1323</v>
@@ -19663,7 +19663,7 @@
         <v>25538</v>
       </c>
       <c r="B182" t="n">
-        <v>132990</v>
+        <v>163793</v>
       </c>
       <c r="C182" t="s">
         <v>1329</v>
@@ -19724,7 +19724,7 @@
         <v>25538</v>
       </c>
       <c r="B183" t="n">
-        <v>132991</v>
+        <v>163794</v>
       </c>
       <c r="C183" t="s">
         <v>1335</v>
@@ -19785,7 +19785,7 @@
         <v>25538</v>
       </c>
       <c r="B184" t="n">
-        <v>132992</v>
+        <v>163795</v>
       </c>
       <c r="C184" t="s">
         <v>1341</v>
@@ -19856,7 +19856,7 @@
         <v>25538</v>
       </c>
       <c r="B185" t="n">
-        <v>132993</v>
+        <v>163796</v>
       </c>
       <c r="C185" t="s">
         <v>1347</v>
@@ -19921,7 +19921,7 @@
         <v>25538</v>
       </c>
       <c r="B186" t="n">
-        <v>132994</v>
+        <v>163797</v>
       </c>
       <c r="C186" t="s">
         <v>1356</v>
@@ -19986,7 +19986,7 @@
         <v>25538</v>
       </c>
       <c r="B187" t="n">
-        <v>132995</v>
+        <v>163798</v>
       </c>
       <c r="C187" t="s">
         <v>1364</v>
@@ -20061,7 +20061,7 @@
         <v>25538</v>
       </c>
       <c r="B188" t="n">
-        <v>132996</v>
+        <v>163799</v>
       </c>
       <c r="C188" t="s">
         <v>1371</v>
@@ -20128,7 +20128,7 @@
         <v>25538</v>
       </c>
       <c r="B189" t="n">
-        <v>132997</v>
+        <v>163800</v>
       </c>
       <c r="C189" t="s">
         <v>1376</v>
@@ -20199,7 +20199,7 @@
         <v>25538</v>
       </c>
       <c r="B190" t="n">
-        <v>132998</v>
+        <v>163801</v>
       </c>
       <c r="C190" t="s">
         <v>1383</v>
@@ -20270,7 +20270,7 @@
         <v>25538</v>
       </c>
       <c r="B191" t="n">
-        <v>132999</v>
+        <v>163802</v>
       </c>
       <c r="C191" t="s">
         <v>1390</v>
@@ -20341,7 +20341,7 @@
         <v>25538</v>
       </c>
       <c r="B192" t="n">
-        <v>133000</v>
+        <v>163803</v>
       </c>
       <c r="C192" t="s">
         <v>1397</v>
@@ -20416,7 +20416,7 @@
         <v>25538</v>
       </c>
       <c r="B193" t="n">
-        <v>133001</v>
+        <v>163804</v>
       </c>
       <c r="C193" t="s">
         <v>1407</v>
@@ -20487,7 +20487,7 @@
         <v>25538</v>
       </c>
       <c r="B194" t="n">
-        <v>133002</v>
+        <v>163805</v>
       </c>
       <c r="C194" t="s">
         <v>1414</v>
@@ -20708,7 +20708,7 @@
         <v>25538</v>
       </c>
       <c r="B197" t="n">
-        <v>133003</v>
+        <v>163806</v>
       </c>
       <c r="C197" t="s">
         <v>1435</v>
@@ -20779,7 +20779,7 @@
         <v>25538</v>
       </c>
       <c r="B198" t="n">
-        <v>133004</v>
+        <v>163807</v>
       </c>
       <c r="C198" t="s">
         <v>1441</v>
@@ -20846,7 +20846,7 @@
         <v>25538</v>
       </c>
       <c r="B199" t="n">
-        <v>133005</v>
+        <v>163808</v>
       </c>
       <c r="C199" t="s">
         <v>1446</v>
@@ -20917,7 +20917,7 @@
         <v>25538</v>
       </c>
       <c r="B200" t="n">
-        <v>133006</v>
+        <v>163809</v>
       </c>
       <c r="C200" t="s">
         <v>1455</v>
@@ -21063,7 +21063,7 @@
         <v>25538</v>
       </c>
       <c r="B202" t="n">
-        <v>133007</v>
+        <v>163810</v>
       </c>
       <c r="C202" t="s">
         <v>1473</v>
@@ -21209,7 +21209,7 @@
         <v>25538</v>
       </c>
       <c r="B204" t="n">
-        <v>133008</v>
+        <v>163811</v>
       </c>
       <c r="C204" t="s">
         <v>1486</v>
@@ -21280,7 +21280,7 @@
         <v>25538</v>
       </c>
       <c r="B205" t="n">
-        <v>133009</v>
+        <v>163812</v>
       </c>
       <c r="C205" t="s">
         <v>1492</v>
@@ -21351,7 +21351,7 @@
         <v>25538</v>
       </c>
       <c r="B206" t="n">
-        <v>132959</v>
+        <v>132901</v>
       </c>
       <c r="C206" t="s">
         <v>1091</v>
@@ -21497,7 +21497,7 @@
         <v>25538</v>
       </c>
       <c r="B208" t="n">
-        <v>133010</v>
+        <v>163813</v>
       </c>
       <c r="C208" t="s">
         <v>1510</v>
@@ -21568,7 +21568,7 @@
         <v>25538</v>
       </c>
       <c r="B209" t="n">
-        <v>133011</v>
+        <v>163814</v>
       </c>
       <c r="C209" t="s">
         <v>1516</v>
@@ -21639,7 +21639,7 @@
         <v>25538</v>
       </c>
       <c r="B210" t="n">
-        <v>133012</v>
+        <v>163815</v>
       </c>
       <c r="C210" t="s">
         <v>1522</v>
@@ -21781,7 +21781,7 @@
         <v>25538</v>
       </c>
       <c r="B212" t="n">
-        <v>133013</v>
+        <v>163816</v>
       </c>
       <c r="C212" t="s">
         <v>1536</v>
@@ -21852,7 +21852,7 @@
         <v>25538</v>
       </c>
       <c r="B213" t="n">
-        <v>133014</v>
+        <v>163817</v>
       </c>
       <c r="C213" t="s">
         <v>1543</v>
@@ -21984,7 +21984,7 @@
         <v>25538</v>
       </c>
       <c r="B215" t="n">
-        <v>133015</v>
+        <v>163818</v>
       </c>
       <c r="C215" t="s">
         <v>1555</v>
@@ -22055,7 +22055,7 @@
         <v>25538</v>
       </c>
       <c r="B216" t="n">
-        <v>133016</v>
+        <v>163819</v>
       </c>
       <c r="C216" t="s">
         <v>1561</v>
@@ -22126,7 +22126,7 @@
         <v>25538</v>
       </c>
       <c r="B217" t="n">
-        <v>133017</v>
+        <v>163820</v>
       </c>
       <c r="C217" t="s">
         <v>1568</v>
@@ -22197,7 +22197,7 @@
         <v>25538</v>
       </c>
       <c r="B218" t="n">
-        <v>133018</v>
+        <v>163821</v>
       </c>
       <c r="C218" t="s">
         <v>1574</v>
@@ -22268,7 +22268,7 @@
         <v>25538</v>
       </c>
       <c r="B219" t="n">
-        <v>133019</v>
+        <v>163822</v>
       </c>
       <c r="C219" t="s">
         <v>1580</v>
@@ -22481,7 +22481,7 @@
         <v>25538</v>
       </c>
       <c r="B222" t="n">
-        <v>133020</v>
+        <v>163823</v>
       </c>
       <c r="C222" t="s">
         <v>1599</v>
@@ -22552,7 +22552,7 @@
         <v>25538</v>
       </c>
       <c r="B223" t="n">
-        <v>133021</v>
+        <v>163824</v>
       </c>
       <c r="C223" t="s">
         <v>1605</v>
@@ -22623,7 +22623,7 @@
         <v>25538</v>
       </c>
       <c r="B224" t="n">
-        <v>133022</v>
+        <v>163825</v>
       </c>
       <c r="C224" t="s">
         <v>1612</v>
@@ -22765,7 +22765,7 @@
         <v>25538</v>
       </c>
       <c r="B226" t="n">
-        <v>133023</v>
+        <v>163826</v>
       </c>
       <c r="C226" t="s">
         <v>1625</v>
@@ -22836,7 +22836,7 @@
         <v>25538</v>
       </c>
       <c r="B227" t="n">
-        <v>133024</v>
+        <v>163827</v>
       </c>
       <c r="C227" t="s">
         <v>1632</v>
@@ -22897,7 +22897,7 @@
         <v>25538</v>
       </c>
       <c r="B228" t="n">
-        <v>133025</v>
+        <v>163828</v>
       </c>
       <c r="C228" t="s">
         <v>1639</v>
@@ -22964,7 +22964,7 @@
         <v>25538</v>
       </c>
       <c r="B229" t="n">
-        <v>133026</v>
+        <v>163829</v>
       </c>
       <c r="C229" t="s">
         <v>1644</v>
@@ -23031,7 +23031,7 @@
         <v>25538</v>
       </c>
       <c r="B230" t="n">
-        <v>133027</v>
+        <v>163830</v>
       </c>
       <c r="C230" t="s">
         <v>1650</v>
@@ -23102,7 +23102,7 @@
         <v>25538</v>
       </c>
       <c r="B231" t="n">
-        <v>133028</v>
+        <v>163831</v>
       </c>
       <c r="C231" t="s">
         <v>1658</v>
@@ -23173,7 +23173,7 @@
         <v>25538</v>
       </c>
       <c r="B232" t="n">
-        <v>133029</v>
+        <v>163832</v>
       </c>
       <c r="C232" t="s">
         <v>1665</v>
@@ -23244,7 +23244,7 @@
         <v>25538</v>
       </c>
       <c r="B233" t="n">
-        <v>133030</v>
+        <v>163833</v>
       </c>
       <c r="C233" t="s">
         <v>1672</v>
@@ -23386,7 +23386,7 @@
         <v>25538</v>
       </c>
       <c r="B235" t="n">
-        <v>133031</v>
+        <v>163834</v>
       </c>
       <c r="C235" t="s">
         <v>1686</v>
@@ -23457,7 +23457,7 @@
         <v>25538</v>
       </c>
       <c r="B236" t="n">
-        <v>133032</v>
+        <v>163835</v>
       </c>
       <c r="C236" t="s">
         <v>1694</v>
@@ -23528,7 +23528,7 @@
         <v>25538</v>
       </c>
       <c r="B237" t="n">
-        <v>133033</v>
+        <v>163836</v>
       </c>
       <c r="C237" t="s">
         <v>1700</v>
@@ -23603,7 +23603,7 @@
         <v>25538</v>
       </c>
       <c r="B238" t="n">
-        <v>133034</v>
+        <v>163837</v>
       </c>
       <c r="C238" t="s">
         <v>1709</v>
@@ -23674,7 +23674,7 @@
         <v>25538</v>
       </c>
       <c r="B239" t="n">
-        <v>133035</v>
+        <v>163838</v>
       </c>
       <c r="C239" t="s">
         <v>1716</v>
@@ -23735,7 +23735,7 @@
         <v>25538</v>
       </c>
       <c r="B240" t="n">
-        <v>133036</v>
+        <v>163839</v>
       </c>
       <c r="C240" t="s">
         <v>1723</v>
@@ -23796,7 +23796,7 @@
         <v>25538</v>
       </c>
       <c r="B241" t="n">
-        <v>133037</v>
+        <v>163840</v>
       </c>
       <c r="C241" t="s">
         <v>1729</v>
@@ -23867,7 +23867,7 @@
         <v>25538</v>
       </c>
       <c r="B242" t="n">
-        <v>133038</v>
+        <v>163841</v>
       </c>
       <c r="C242" t="s">
         <v>1736</v>
@@ -23938,7 +23938,7 @@
         <v>25538</v>
       </c>
       <c r="B243" t="n">
-        <v>133039</v>
+        <v>163842</v>
       </c>
       <c r="C243" t="s">
         <v>1742</v>
@@ -24013,7 +24013,7 @@
         <v>25538</v>
       </c>
       <c r="B244" t="n">
-        <v>133040</v>
+        <v>163843</v>
       </c>
       <c r="C244" t="s">
         <v>1751</v>
@@ -24084,7 +24084,7 @@
         <v>25538</v>
       </c>
       <c r="B245" t="n">
-        <v>133041</v>
+        <v>163844</v>
       </c>
       <c r="C245" t="s">
         <v>1759</v>
@@ -24226,7 +24226,7 @@
         <v>25538</v>
       </c>
       <c r="B247" t="n">
-        <v>133042</v>
+        <v>145730</v>
       </c>
       <c r="C247" t="s">
         <v>1771</v>
@@ -24295,7 +24295,7 @@
         <v>25538</v>
       </c>
       <c r="B248" t="n">
-        <v>133043</v>
+        <v>163845</v>
       </c>
       <c r="C248" t="s">
         <v>1778</v>
@@ -24352,7 +24352,7 @@
         <v>25538</v>
       </c>
       <c r="B249" t="n">
-        <v>133044</v>
+        <v>163846</v>
       </c>
       <c r="C249" t="s">
         <v>1784</v>
@@ -24423,7 +24423,7 @@
         <v>25538</v>
       </c>
       <c r="B250" t="n">
-        <v>133045</v>
+        <v>163847</v>
       </c>
       <c r="C250" t="s">
         <v>1790</v>
@@ -24494,7 +24494,7 @@
         <v>25538</v>
       </c>
       <c r="B251" t="n">
-        <v>133046</v>
+        <v>163848</v>
       </c>
       <c r="C251" t="s">
         <v>1795</v>
@@ -24565,7 +24565,7 @@
         <v>25538</v>
       </c>
       <c r="B252" t="n">
-        <v>133047</v>
+        <v>163849</v>
       </c>
       <c r="C252" t="s">
         <v>1802</v>
@@ -24636,7 +24636,7 @@
         <v>25538</v>
       </c>
       <c r="B253" t="n">
-        <v>133048</v>
+        <v>163850</v>
       </c>
       <c r="C253" t="s">
         <v>1809</v>
@@ -24707,7 +24707,7 @@
         <v>25538</v>
       </c>
       <c r="B254" t="n">
-        <v>133049</v>
+        <v>163851</v>
       </c>
       <c r="C254" t="s">
         <v>1816</v>
@@ -24778,7 +24778,7 @@
         <v>25538</v>
       </c>
       <c r="B255" t="n">
-        <v>133050</v>
+        <v>163852</v>
       </c>
       <c r="C255" t="s">
         <v>1824</v>
@@ -24849,7 +24849,7 @@
         <v>25538</v>
       </c>
       <c r="B256" t="n">
-        <v>133051</v>
+        <v>163853</v>
       </c>
       <c r="C256" t="s">
         <v>1829</v>
@@ -24920,7 +24920,7 @@
         <v>25538</v>
       </c>
       <c r="B257" t="n">
-        <v>133052</v>
+        <v>163854</v>
       </c>
       <c r="C257" t="s">
         <v>1836</v>
@@ -24991,7 +24991,7 @@
         <v>25538</v>
       </c>
       <c r="B258" t="n">
-        <v>133053</v>
+        <v>163855</v>
       </c>
       <c r="C258" t="s">
         <v>1843</v>
@@ -25062,7 +25062,7 @@
         <v>25538</v>
       </c>
       <c r="B259" t="n">
-        <v>133054</v>
+        <v>163856</v>
       </c>
       <c r="C259" t="s">
         <v>1849</v>
@@ -25133,7 +25133,7 @@
         <v>25538</v>
       </c>
       <c r="B260" t="n">
-        <v>133055</v>
+        <v>163857</v>
       </c>
       <c r="C260" t="s">
         <v>1856</v>
@@ -25275,7 +25275,7 @@
         <v>25538</v>
       </c>
       <c r="B262" t="n">
-        <v>133056</v>
+        <v>163858</v>
       </c>
       <c r="C262" t="s">
         <v>1868</v>
@@ -25346,7 +25346,7 @@
         <v>25538</v>
       </c>
       <c r="B263" t="n">
-        <v>133057</v>
+        <v>163859</v>
       </c>
       <c r="C263" t="s">
         <v>1874</v>
@@ -25417,7 +25417,7 @@
         <v>25538</v>
       </c>
       <c r="B264" t="n">
-        <v>133058</v>
+        <v>163860</v>
       </c>
       <c r="C264" t="s">
         <v>1880</v>
@@ -25559,7 +25559,7 @@
         <v>25538</v>
       </c>
       <c r="B266" t="n">
-        <v>133059</v>
+        <v>145312</v>
       </c>
       <c r="C266" t="s">
         <v>1893</v>
@@ -25630,7 +25630,7 @@
         <v>25538</v>
       </c>
       <c r="B267" t="n">
-        <v>133060</v>
+        <v>163861</v>
       </c>
       <c r="C267" t="s">
         <v>1899</v>
@@ -25772,7 +25772,7 @@
         <v>25538</v>
       </c>
       <c r="B269" t="n">
-        <v>133061</v>
+        <v>163862</v>
       </c>
       <c r="C269" t="s">
         <v>1912</v>
@@ -25922,7 +25922,7 @@
         <v>25538</v>
       </c>
       <c r="B271" t="n">
-        <v>133062</v>
+        <v>163863</v>
       </c>
       <c r="C271" t="s">
         <v>1930</v>
@@ -25993,7 +25993,7 @@
         <v>25538</v>
       </c>
       <c r="B272" t="n">
-        <v>133063</v>
+        <v>163864</v>
       </c>
       <c r="C272" t="s">
         <v>1936</v>
@@ -26064,7 +26064,7 @@
         <v>25538</v>
       </c>
       <c r="B273" t="n">
-        <v>133064</v>
+        <v>163865</v>
       </c>
       <c r="C273" t="s">
         <v>1944</v>
@@ -26135,7 +26135,7 @@
         <v>25538</v>
       </c>
       <c r="B274" t="n">
-        <v>133065</v>
+        <v>163866</v>
       </c>
       <c r="C274" t="s">
         <v>1949</v>
@@ -26206,7 +26206,7 @@
         <v>25538</v>
       </c>
       <c r="B275" t="n">
-        <v>133066</v>
+        <v>163867</v>
       </c>
       <c r="C275" t="s">
         <v>1955</v>
@@ -26277,7 +26277,7 @@
         <v>25538</v>
       </c>
       <c r="B276" t="n">
-        <v>133067</v>
+        <v>163868</v>
       </c>
       <c r="C276" t="s">
         <v>1961</v>
@@ -26348,7 +26348,7 @@
         <v>25538</v>
       </c>
       <c r="B277" t="n">
-        <v>133068</v>
+        <v>163869</v>
       </c>
       <c r="C277" t="s">
         <v>1966</v>
@@ -26419,7 +26419,7 @@
         <v>25538</v>
       </c>
       <c r="B278" t="n">
-        <v>133069</v>
+        <v>163870</v>
       </c>
       <c r="C278" t="s">
         <v>1973</v>
@@ -26561,7 +26561,7 @@
         <v>25538</v>
       </c>
       <c r="B280" t="n">
-        <v>133070</v>
+        <v>163871</v>
       </c>
       <c r="C280" t="s">
         <v>1987</v>
@@ -26630,7 +26630,7 @@
         <v>25538</v>
       </c>
       <c r="B281" t="n">
-        <v>133071</v>
+        <v>163872</v>
       </c>
       <c r="C281" t="s">
         <v>1994</v>
@@ -26695,7 +26695,7 @@
         <v>25538</v>
       </c>
       <c r="B282" t="n">
-        <v>133072</v>
+        <v>163873</v>
       </c>
       <c r="C282" t="s">
         <v>2001</v>
@@ -26762,7 +26762,7 @@
         <v>25538</v>
       </c>
       <c r="B283" t="n">
-        <v>133073</v>
+        <v>163874</v>
       </c>
       <c r="C283" t="s">
         <v>2007</v>
@@ -26829,7 +26829,7 @@
         <v>25538</v>
       </c>
       <c r="B284" t="n">
-        <v>133074</v>
+        <v>163875</v>
       </c>
       <c r="C284" t="s">
         <v>2014</v>
@@ -26896,7 +26896,7 @@
         <v>25538</v>
       </c>
       <c r="B285" t="n">
-        <v>133075</v>
+        <v>163876</v>
       </c>
       <c r="C285" t="s">
         <v>2021</v>
@@ -26963,7 +26963,7 @@
         <v>25538</v>
       </c>
       <c r="B286" t="n">
-        <v>133076</v>
+        <v>163877</v>
       </c>
       <c r="C286" t="s">
         <v>2027</v>
@@ -27030,7 +27030,7 @@
         <v>25538</v>
       </c>
       <c r="B287" t="n">
-        <v>133077</v>
+        <v>163878</v>
       </c>
       <c r="C287" t="s">
         <v>2034</v>
@@ -27101,7 +27101,7 @@
         <v>25538</v>
       </c>
       <c r="B288" t="n">
-        <v>133078</v>
+        <v>163879</v>
       </c>
       <c r="C288" t="s">
         <v>2042</v>
@@ -27172,7 +27172,7 @@
         <v>25538</v>
       </c>
       <c r="B289" t="n">
-        <v>133079</v>
+        <v>163880</v>
       </c>
       <c r="C289" t="s">
         <v>2049</v>
@@ -27314,7 +27314,7 @@
         <v>25538</v>
       </c>
       <c r="B291" t="n">
-        <v>133080</v>
+        <v>163881</v>
       </c>
       <c r="C291" t="s">
         <v>2064</v>
@@ -27385,7 +27385,7 @@
         <v>25538</v>
       </c>
       <c r="B292" t="n">
-        <v>133081</v>
+        <v>163882</v>
       </c>
       <c r="C292" t="s">
         <v>2071</v>
@@ -27456,7 +27456,7 @@
         <v>25538</v>
       </c>
       <c r="B293" t="n">
-        <v>133082</v>
+        <v>163883</v>
       </c>
       <c r="C293" t="s">
         <v>2078</v>
@@ -27527,7 +27527,7 @@
         <v>25538</v>
       </c>
       <c r="B294" t="n">
-        <v>133083</v>
+        <v>163884</v>
       </c>
       <c r="C294" t="s">
         <v>2085</v>
@@ -27598,7 +27598,7 @@
         <v>25538</v>
       </c>
       <c r="B295" t="n">
-        <v>133084</v>
+        <v>163885</v>
       </c>
       <c r="C295" t="s">
         <v>2092</v>
@@ -27669,7 +27669,7 @@
         <v>25538</v>
       </c>
       <c r="B296" t="n">
-        <v>133085</v>
+        <v>163886</v>
       </c>
       <c r="C296" t="s">
         <v>2098</v>
@@ -27740,7 +27740,7 @@
         <v>25538</v>
       </c>
       <c r="B297" t="n">
-        <v>133086</v>
+        <v>163887</v>
       </c>
       <c r="C297" t="s">
         <v>2106</v>
@@ -27811,7 +27811,7 @@
         <v>25538</v>
       </c>
       <c r="B298" t="n">
-        <v>133087</v>
+        <v>163888</v>
       </c>
       <c r="C298" t="s">
         <v>2113</v>
@@ -27882,7 +27882,7 @@
         <v>25538</v>
       </c>
       <c r="B299" t="n">
-        <v>133088</v>
+        <v>163889</v>
       </c>
       <c r="C299" t="s">
         <v>2121</v>
@@ -27953,7 +27953,7 @@
         <v>25538</v>
       </c>
       <c r="B300" t="n">
-        <v>133089</v>
+        <v>163890</v>
       </c>
       <c r="C300" t="s">
         <v>2129</v>
@@ -28014,7 +28014,7 @@
         <v>25538</v>
       </c>
       <c r="B301" t="n">
-        <v>133090</v>
+        <v>163891</v>
       </c>
       <c r="C301" t="s">
         <v>2136</v>
@@ -28085,7 +28085,7 @@
         <v>25538</v>
       </c>
       <c r="B302" t="n">
-        <v>133091</v>
+        <v>163892</v>
       </c>
       <c r="C302" t="s">
         <v>2143</v>
@@ -28156,7 +28156,7 @@
         <v>25538</v>
       </c>
       <c r="B303" t="n">
-        <v>133092</v>
+        <v>163893</v>
       </c>
       <c r="C303" t="s">
         <v>2151</v>
@@ -28227,7 +28227,7 @@
         <v>25538</v>
       </c>
       <c r="B304" t="n">
-        <v>133093</v>
+        <v>163894</v>
       </c>
       <c r="C304" t="s">
         <v>2159</v>
@@ -28440,7 +28440,7 @@
         <v>25538</v>
       </c>
       <c r="B307" t="n">
-        <v>133094</v>
+        <v>163895</v>
       </c>
       <c r="C307" t="s">
         <v>2182</v>
@@ -28511,7 +28511,7 @@
         <v>25538</v>
       </c>
       <c r="B308" t="n">
-        <v>133095</v>
+        <v>163896</v>
       </c>
       <c r="C308" t="s">
         <v>2190</v>
@@ -28582,7 +28582,7 @@
         <v>25538</v>
       </c>
       <c r="B309" t="n">
-        <v>133096</v>
+        <v>163897</v>
       </c>
       <c r="C309" t="s">
         <v>2197</v>
@@ -28653,7 +28653,7 @@
         <v>25538</v>
       </c>
       <c r="B310" t="n">
-        <v>133097</v>
+        <v>163898</v>
       </c>
       <c r="C310" t="s">
         <v>2204</v>
@@ -28724,7 +28724,7 @@
         <v>25538</v>
       </c>
       <c r="B311" t="n">
-        <v>133098</v>
+        <v>163899</v>
       </c>
       <c r="C311" t="s">
         <v>2211</v>
@@ -28795,7 +28795,7 @@
         <v>25538</v>
       </c>
       <c r="B312" t="n">
-        <v>133099</v>
+        <v>163900</v>
       </c>
       <c r="C312" t="s">
         <v>2218</v>
@@ -28866,7 +28866,7 @@
         <v>25538</v>
       </c>
       <c r="B313" t="n">
-        <v>133100</v>
+        <v>163901</v>
       </c>
       <c r="C313" t="s">
         <v>2226</v>
@@ -28933,7 +28933,7 @@
         <v>25538</v>
       </c>
       <c r="B314" t="n">
-        <v>133101</v>
+        <v>163902</v>
       </c>
       <c r="C314" t="s">
         <v>2233</v>
@@ -29004,7 +29004,7 @@
         <v>25538</v>
       </c>
       <c r="B315" t="n">
-        <v>133102</v>
+        <v>163903</v>
       </c>
       <c r="C315" t="s">
         <v>2240</v>
@@ -29075,7 +29075,7 @@
         <v>25538</v>
       </c>
       <c r="B316" t="n">
-        <v>133103</v>
+        <v>163904</v>
       </c>
       <c r="C316" t="s">
         <v>2247</v>
@@ -29146,7 +29146,7 @@
         <v>25538</v>
       </c>
       <c r="B317" t="n">
-        <v>133104</v>
+        <v>163905</v>
       </c>
       <c r="C317" t="s">
         <v>2254</v>
@@ -29217,7 +29217,7 @@
         <v>25538</v>
       </c>
       <c r="B318" t="n">
-        <v>133105</v>
+        <v>163906</v>
       </c>
       <c r="C318" t="s">
         <v>2261</v>
@@ -29286,7 +29286,7 @@
         <v>25538</v>
       </c>
       <c r="B319" t="n">
-        <v>133106</v>
+        <v>163907</v>
       </c>
       <c r="C319" t="s">
         <v>2268</v>
@@ -29357,7 +29357,7 @@
         <v>25538</v>
       </c>
       <c r="B320" t="n">
-        <v>133107</v>
+        <v>163908</v>
       </c>
       <c r="C320" t="s">
         <v>2276</v>
@@ -29428,7 +29428,7 @@
         <v>25538</v>
       </c>
       <c r="B321" t="n">
-        <v>133108</v>
+        <v>163909</v>
       </c>
       <c r="C321" t="s">
         <v>2284</v>
@@ -29499,7 +29499,7 @@
         <v>25538</v>
       </c>
       <c r="B322" t="n">
-        <v>133109</v>
+        <v>163910</v>
       </c>
       <c r="C322" t="s">
         <v>2291</v>
@@ -29639,7 +29639,7 @@
         <v>25538</v>
       </c>
       <c r="B324" t="n">
-        <v>133110</v>
+        <v>163911</v>
       </c>
       <c r="C324" t="s">
         <v>2306</v>
@@ -29696,7 +29696,7 @@
         <v>25538</v>
       </c>
       <c r="B325" t="n">
-        <v>133111</v>
+        <v>163912</v>
       </c>
       <c r="C325" t="s">
         <v>2312</v>
@@ -29753,7 +29753,7 @@
         <v>25538</v>
       </c>
       <c r="B326" t="n">
-        <v>133112</v>
+        <v>163913</v>
       </c>
       <c r="C326" t="s">
         <v>2317</v>
@@ -29875,7 +29875,7 @@
         <v>25538</v>
       </c>
       <c r="B328" t="n">
-        <v>133113</v>
+        <v>163914</v>
       </c>
       <c r="C328" t="s">
         <v>2328</v>
